--- a/日経社説ー春秋/質の高いアジアの経済連合を主導せよ.xlsx
+++ b/日経社説ー春秋/質の高いアジアの経済連合を主導せよ.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,108 +19,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>包括的</t>
-  </si>
-  <si>
-    <t>後発</t>
-  </si>
-  <si>
-    <t>途上国</t>
-  </si>
-  <si>
-    <t>見出す</t>
-  </si>
-  <si>
-    <t>妥協点</t>
-  </si>
-  <si>
-    <t>発効</t>
-  </si>
-  <si>
-    <t>足がかり</t>
-  </si>
-  <si>
-    <t>舵を切る</t>
-  </si>
-  <si>
-    <t>判然</t>
-  </si>
-  <si>
-    <t>豪</t>
-  </si>
-  <si>
-    <t>ごう</t>
-  </si>
-  <si>
-    <t>オーストラリア</t>
-  </si>
-  <si>
-    <t>ほうかつてき</t>
-  </si>
-  <si>
-    <t>全てを引っ括めているさま。総括的。</t>
-  </si>
-  <si>
-    <t>こうはつ</t>
-  </si>
-  <si>
-    <t>後から遅れて出発すること。</t>
-  </si>
-  <si>
-    <t>とじょうこく</t>
-  </si>
-  <si>
-    <t>「発展途上国」の略。</t>
-  </si>
-  <si>
-    <t>みいだす</t>
-  </si>
-  <si>
-    <t>見つけ出す。</t>
-  </si>
-  <si>
-    <t>だきょうてん</t>
-  </si>
-  <si>
-    <t>両者の折り合いのつくところ。</t>
-  </si>
-  <si>
-    <t>はっこう</t>
-  </si>
-  <si>
-    <t>条約・法律なＤが効力をもつようになること。</t>
-  </si>
-  <si>
-    <t>あしがかり</t>
-  </si>
-  <si>
-    <t>足を引っ掛ける部分。登攀の取っ掛かりとする。転じて、物事を開始する糸口となるもの。</t>
-  </si>
-  <si>
-    <t>かじをきる</t>
-  </si>
-  <si>
-    <t>船の舵を操り進行方向を変える。</t>
-  </si>
-  <si>
-    <t>はんぜん</t>
-  </si>
-  <si>
-    <t>はっきりしているさま。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>日中韓豪、ニュージーランド、インドに東南アジア諸国連合（ASEAN)を加えた計１６カ国が経済連携協定（EPA)を結ぶ構想がある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>１６カ国は３日まで神戸市で交渉会合を開いた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交渉を事務レベルに委ねるだけでなく必要に応じて閣僚会合を開き、政治が交渉を後押しすべきではないか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>環太平洋経済連携協定（TPP)は日米が主導した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これに対しRCEPは、中国やインドのほかミャンマーなど後発の途上国も加わっているのが特徴だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>複雑なり外を超えて妥協点を見出す難しさは理解できる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかし、米国の離脱によりTPP発効の筋道が見えなくなった中、将来のFTAAP（アジア太平洋自由貿易圏）へのもう一つの足がかりとなるRCEPを漂流させてはならない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RCEPで大事なのは、TPPが実現しようとしていた質の高い貿易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・投資ルールに少しでも近づけることだ。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国の経済発展の度合いに応じて一部で例外を認めるのはやむを得ないとしても、知的財産やサービス貿易などの分野でTPPの成果を反映させることは可能だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>出来る限り関税を削減</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・撤廃する点も重要だ。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランプ米政権は多国間から二国間の通商協定に舵を切る構えだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米国が参加しておらず中国が参加しているRCEPをどう受け止めているかは、判然としない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCEPを軽視してはならない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アジア太平洋地域に拡大な自由貿易圏をつくり、世界の成長センターとして繁栄する。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日本を含むアジアの各国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・地域はその目標を忘れず、着実に経済連携を進めねばならない。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本政府関係者は「着実な進展があった」と述べたものの、新たに合意した分野はなかった。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>２０１３年から始まった交渉はこれまでのところ順調に進んきたとは言えない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPPの国内手続きを終えた日本こそ、RCEPの交渉を主導すべきだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アジア全域に供給網を広げる日本企業が使いにくい経済連携にしてはならない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日本は貿易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・投資の自由化の意義を粘り強く中印に説いてほしい。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それでも日本がRCEPを全身させれば米国が圧力を感じ、長い目で見て米国がTPPへの復帰を検討するきっかけにできるかもしれない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東アジア地域包括的経済連合（RCEP)だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -149,11 +209,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -211,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,7 +309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,138 +486,140 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="73.85546875" customWidth="1"/>
+    <col min="1" max="1" width="85" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="73.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="27">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="27">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="40.5">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="27">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="27">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="21" spans="1:1" ht="27">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>